--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
   <si>
     <t>name</t>
   </si>
@@ -43,202 +43,217 @@
     <t>schedule</t>
   </si>
   <si>
-    <t>Программист-разработчик</t>
-  </si>
-  <si>
-    <t>Системный Инженер Linux</t>
-  </si>
-  <si>
-    <t>Программист микроконтроллеров на языке C</t>
-  </si>
-  <si>
-    <t>Python разработчик</t>
-  </si>
-  <si>
-    <t>Telegram Bot Developer</t>
-  </si>
-  <si>
-    <t>Middle Python Developer</t>
-  </si>
-  <si>
-    <t>Junior Quantitative Researcher</t>
-  </si>
-  <si>
-    <t>Разработчик в интернет-магазин</t>
-  </si>
-  <si>
-    <t>Системный администратор</t>
-  </si>
-  <si>
-    <t>Системный программист С++ (Windows)</t>
-  </si>
-  <si>
-    <t>Middle Python-разработчик</t>
-  </si>
-  <si>
-    <t>QA тестировщик</t>
-  </si>
-  <si>
-    <t>Инженер по тестированию</t>
-  </si>
-  <si>
-    <t>Trader at crypto market-making company</t>
-  </si>
-  <si>
-    <t>Software Developer Python</t>
-  </si>
-  <si>
-    <t>Python-разработчик</t>
-  </si>
-  <si>
-    <t>Аналитик данных (офис)</t>
+    <t>Java developer/разработчик Middle+ , Senior</t>
+  </si>
+  <si>
+    <t>Программист SQL</t>
+  </si>
+  <si>
+    <t>Senior Data Engineer - SQL, Python, AWS</t>
+  </si>
+  <si>
+    <t>Java/Kotlin Developer (Spring) Middle+/Senior</t>
+  </si>
+  <si>
+    <t>Backend Developer (Java) Middle+ / Разработчик</t>
+  </si>
+  <si>
+    <t>Java Developer</t>
+  </si>
+  <si>
+    <t>Java-разработчик (Middle,Senior)</t>
+  </si>
+  <si>
+    <t>Java Разработчик Middle (fullstack)</t>
+  </si>
+  <si>
+    <t>Java-разработчик (Middle/Senior)</t>
+  </si>
+  <si>
+    <t>Middle Java developer</t>
+  </si>
+  <si>
+    <t>Java-разработчик</t>
+  </si>
+  <si>
+    <t>Java Разработчик</t>
+  </si>
+  <si>
+    <t>Java developer</t>
+  </si>
+  <si>
+    <t>Разработчик Java</t>
+  </si>
+  <si>
+    <t>Middle Java Developer / middle JAVA программист, удаленно</t>
+  </si>
+  <si>
+    <t>Инженер-программист (Java, С++, C#)</t>
+  </si>
+  <si>
+    <t>Аналитик (SQL) Middle | Senior</t>
   </si>
   <si>
     <t>Москва</t>
   </si>
   <si>
-    <t>https://hh.ru/vacancy/101532598</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101367652</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/99599013</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101732669</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101461214</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101366864</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/100523092</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/100742575</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/100755660</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/99831250</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101068721</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/99173594</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/96610425</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/100463062</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/99843629</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101501407</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101527139</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101259888</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/100830457</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101759439</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отличные знания одного из языков программирования: TypeScript, Python, Go, Rust, Dart. Опыт работы с фреймворками и технологиями. Опыт работы с...Разработка и поддержка передовых проектов. Постоянное обучение и освоение новых технологий. Работа в команде, обмен опытом и знаниями. </t>
-  </si>
-  <si>
-    <t>Опыт администрирования баз данных: MySQL, Oracle, PostgreSQL. Знание скриптовых языков: Bash, Perl, PHP, Python. Опыт работы с технологиями виртуализации: VMware...Обслуживание, поддержка и развитие инфраструктуры высокой доступности. Повышение защиты, обеспечение безопасности существующей сети, текущих и будущих проектов. Использование автоматизации конфигураций...</t>
-  </si>
-  <si>
-    <t>Понимание особенностей функционирования компьютеров в широком смысле (устройство ОС, загрузчиков, сетевых протоколов и т.д.). Желательно знание Python.Разработка, доработка и поддержка прошивок для наших устройств для автоматизации: датчиков, реле, счётчиков, диммеров.</t>
-  </si>
-  <si>
-    <t>Используемые технологии: - Flask. - Sql.Чем делать: Реализовывать фичи, покрывать их тестами. Участвовать в кросс-кодревью коллег. Багфиксы. Участвовать в проработке и декомпозиции задач.</t>
-  </si>
-  <si>
-    <t>Опыт работы в геймдеве и опыт интеграции платежных сервисов будет являться плюсом.Концепция продукта: геймифицированное рилтайм взаимодействие пользователей друг с другом посредством интерфейса телеграмм-бота. Опыт разработки масштабируемых по нагрузке фулстэк продуктов...</t>
-  </si>
-  <si>
-    <t>Знание python, django, pgadmin, javascript.Доработка и поддержка серверной части сервиса на Python с использованием Django. Создание и поддержка пользовательских интерфейсов с использованием JavaScript, HTML...</t>
-  </si>
-  <si>
-    <t>Опыт написания кода на Django (+ DRF) от 2х лет. Понимание способов оптимизации SQL запросов к БД. Разработка сервиса для оплаты покупок в криптовалюте. Платформу можно будет интегрировать в сайты для получения оплаты услуг и товаров в...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Уверенные знания и опыт работы с Python. Опыт работы с Celery, RabbitMQ, PostgreSQL, nginx и Docker. Знание фреймворков Django, DRF...Разработка и поддержка бекенд-части приложения на языке Python. Создание и управление очередями задач с использованием Celery и RabbitMQ. </t>
-  </si>
-  <si>
-    <t>Имеет практический опыт в анализе данных на python (numpy, pandas, scikit-learn etc) . Понимает принципы работы основных методов машинного обучения. Activmatrix - небольшая команда квантов и программистов из Москвы, работающая в тесном сотрудничестве с QST Financial. компания с офисом в Лимассоле...</t>
-  </si>
-  <si>
-    <t>ТЕХНОЛОГИЧЕСКИЙ СТЕК: MSSQL - написание запросов, хранимых процедур. Python - самостоятельно создание фич. Плюсом будет: Опыт работы с 1С. Сопровождение и доработка системы учета компании. Работа с БД, создание новых фич на Python и других языках, администрирование системы.</t>
-  </si>
-  <si>
-    <t>Опыт настройки nftables/iptables. Опыт написания скриптов bash/python, powershell. Опыт работы с nginx/apache, exim/dovecot, mysql/postgresql. Администрирование офисной (физической, программной) и облачной инфраструктуры на базе Linux и Windows.</t>
-  </si>
-  <si>
-    <t>Понимание принципов работы микросервисной архитектуры. Знакомство с Gitlab-ом и Gitlab CI. Знакомство с Boost. Знакомство с Python.Разработка вспомогательных сервисов и программ в userspace-е. Разработка драйверов для системы сбора событий. Разработка и ведение проектов в Gitlab...</t>
-  </si>
-  <si>
-    <t>Опыт коммерческой разработки на Python. Опыт работы с Linux, Bash, SSH. Опыт работы с SQL и NoSQL базами данных. Разработка с использованием Python3. Поддержание проектов компании. Оптимизация существующих проектов компании. Разработка модулей для управления системами хранения данных и...</t>
-  </si>
-  <si>
-    <t>Знание SQL. Будет плюсом. Опыт автоматизации тестирования на Python или на Java. Знание ООП и паттернов разработки автотестов. Закрываем полный цикл разработки: от UX/UI до развертывания и сопровождения. Работаем небольшими командами 8-12 человек. Рассчитываем на долгосрочное...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Опыт работы от 2-х лет. Понимание клиент-серверной архитектуры. Понимание жизненного цикла разработки ПО. Опыт тестирования WEB UI, REST...Тестирование WEB UI, REST API. Тестирование микросервисов. Анализ требований и составление тестовой документации. Взаимодействие с командой разработки и бизнесом. </t>
-  </si>
-  <si>
-    <t>You have to speak English.To be part of mids.capital trading desk team and provide market-making service for clients. You will do the following...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Английский на уровне свободного чтения технической документации. Знание python-фреймворков: AioHTTP. Опыт работы с Django Сhannels, Django ORM, Celery, Web...Разработка архитектуры новых проектов и технологических решений. Поддержка, развитие и оптимизация существующего кода бекендов различных сервисов действующих проектов. </t>
-  </si>
-  <si>
-    <t>Опыт разработки на Python от 3-х лет, опыт с Django обязателен. Понимание веб-стека, принципов REST и построения реляционных...Активно участвовать во всех этапах разработки в составе команды: от сбора и анализа требований до написания кода и выкатки в...</t>
-  </si>
-  <si>
-    <t>Опыт коммерческой разработки на Python от 3 лет. Уверенное знание Linux. Хорошее знание хотя бы одного из фреймворков - Django, Flask...Принимать активное участие в разработке архитектуры высоконагруженных, масштабируемых и безопасных систем. Осуществлять рефакторинг, оптимизировать код и улучшать производительность существующих высоконагруженных...</t>
-  </si>
-  <si>
-    <t>умение работать с массивами данных. - опыт работы в SQL, Python, Excel, 1С, PBI или любой другой сервис визуализации данных. - формированием ассортиментной матрицы с учетом истории продаж, потребностей рынка и целей компании. - мониторинг конкурентов с целью выявления потенциала в новых...</t>
+    <t>Великобритания</t>
+  </si>
+  <si>
+    <t>Томск</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Самара</t>
+  </si>
+  <si>
+    <t>Тверь</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/98922067</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/98955901</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101419407</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/100101267</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101551141</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/99006854</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/98039856</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/100487006</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/99002163</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/97675912</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/85016925</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101755722</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/97140822</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/100352910</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/91730561</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/100781869</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101360223</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/99587173</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/90914046</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101362190</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опыт работы от 5 лет. Знание Java 11. Опыт работы с микросервисной архитектурой. Опыт работы с JPA (PostgreSQL). </t>
+  </si>
+  <si>
+    <t>Опыт разработки SQL-запросов для СУБД MS SQL Server. Написание хранимых процедур, триггеров, функций. Умение пользоваться анализатором запросов. Проектирование таблиц, БД. Написание оптимальных запросов в высоконагруженных СУБД для MS SQL на языке T-SQL. Работа с высоконагруженными базами.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2+ years of working experience in data engineering. Python, SQL, AWS (RDS, RedShift, Lambda, Glue etc.). Preferred experience with...Data Integration: Ability to extract, transform, and load data from various sources into a centralised data storage system. </t>
+  </si>
+  <si>
+    <t>Опыт коммерческой разработки back-end на Java/Kotlin от 3 лет. Опыт работы с Spring Framework. Опыт работы с реляционными...Разработка новых продуктов. Разработка серверной части проекта. Поддержка и развитие существующих решений - бэкенд, базы данных, очереди задач. Интеграция с внешними...</t>
+  </si>
+  <si>
+    <t>Опыт работы с Java от 2-х лет. Уверенные знания основных современных концепций и принципов разработки на платформе Java. Возможность "путешествовать" по проектам разных направлений (промка, фин, телеком, агро , медицина, ретейл) в рамках 1 работодателя. Свой собственный институт знаний...</t>
+  </si>
+  <si>
+    <t>Опыт работы от 3 лет в коммерческих проектах. Знание Java. Знание Spring (Spring Boot, Spring JPA, Spring Cloud). Участвовать во внутренних и внешних проектах. Разрабатывать новые и поддерживать существующие системы на Java.</t>
+  </si>
+  <si>
+    <t>Отличные знания Java Core и опыт работы со стеком Spring, в том числе SpringBoot. Использовали Git; Gradle/Maven. Олицетворение человеческого отношения друг к другу, культура в компании, при которой сотрудников слушают и слышат.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Опыт работы с Unix консолью. Опыт работы с Java Core на продвинутом уровне. Знание и опыт применения FreeMarker для шаблонизации. Разработка новых функциональностей и модулей в соответствии с требованиями заказчика. Доработка существующего функционала для улучшения производительности и пользовательского опыта. </t>
+  </si>
+  <si>
+    <t>3+ года опыта коммерческой разработки на Java. Понимание как работают Spring и Spring Boot, опыт их использования и отладки...Работу над реальными бизнес-задачами клиентов, быстрый фидбэк. Коммуницировать с заказчиком, по необходимости прояснять задачи и предлагать решения.</t>
+  </si>
+  <si>
+    <t>Java 17, Kotlin (опционально). Spring (boot, data, web, ws), Hibernate. Понимание микросервисной архитектуры. Хорошее понимание смежных технологий: SQL (Oracle, Postgres...Разрабатывать приложения на java + spring. Участвовать в проработке концепции продукта вместе с владельцем продукта и командой. Осуществлять выбор способов...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высшее образование. Опыт работы на должности java-разработчика от 3-х лет. Знание Java Core (jdk 8 +). Знание maven. Разработка no-code/low-code решений с использованием BPMN движка (Camunda). Разработка специализированных функций реализации задач (task) BPMN-процессов. </t>
+  </si>
+  <si>
+    <t>Опыт работы и уверенные знания Java (Core, Collection, Stream api). Опыт работы и уверенные знания основных модулей Spring Framework. Разработка нового, поддержка/оптимизация текущего функционала. Разбор и устранение дефектов. Рефакторинг и Code Review. Участие в планировании, оценка трудоемкости, декомпозиция...</t>
+  </si>
+  <si>
+    <t>Имеете опыт реактивного программирования на Java (Reactor, RxJava). Имеете опыт АОП. Разрабатывали что-то с использованием JavaFX. Уверенный пользователь Linux.Проектировать, разрабатывать и тестировать модули НСУ. Применять лучшие кодинг-практики, проводить код-ревью. Взаимодействовать с опытной командой (системный и программный...</t>
+  </si>
+  <si>
+    <t>Умение работать в системах GitLab, BitBucket, TeamCity, Jenkins. Уверенные знания знание ООП и java. Опыт разработки юнит-тестов. Разработка ПО (BackEnd) в соответствии с утвержденными техническими заданиями. Участие в проектировании разрабатываемого ПО. Реализации сложных интеграционных процессов и преобразований...</t>
+  </si>
+  <si>
+    <t>Современный стек технологий.Технологический стек: Интересные, сложные проекты, высокая степень детализации задач на разработку.</t>
+  </si>
+  <si>
+    <t>Уверенное знание и владение языком программирования Java. Опыт работы с облачными платформами и технологиями. Опыт работы с Jira или похожей...Разработка ETL фреймворка на Java. Интеграция фреймворка с cloud платформами.</t>
+  </si>
+  <si>
+    <t>Понимание ООП. Знание стека основных корпоративных технологий Java (JMS, JNDI, JPA, JTA, CDI, JAX-RS, JAX-WS). Знание Spring (Core...Проектирование и реализация крупных корпоративных решений. Создание модульных и интеграционных тестов и сценариев тестирования. Активное участие в планировании и развитии...</t>
+  </si>
+  <si>
+    <t>Знание Java(11+) (Java Core, Java Collections, Java Concurrency). Spring Framework (Spring boot, MVC, Security, Spring Cloud). Дорабатывать и поддерживать существующие функциональности backend. Создавать и развивать существующий код, участвовать в разработке архитектуры приложения, рефакторинг и оптимизация кода...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Высшее профессиональное образование по профилю: "Вычислительные системы", "Информационные технологии". Навыки программирования на С#, Java (профессиональный уровень). Понимание принципов построения вычислительных...Разработка алгоритмов для разрабатываемых программ в соответствии с требованиями технического задания. Разработка схем баз данных для разрабатываемых программ. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Знание SQL на хорошем уровне, умение писать сложные запросы к БД (мы работаем с PostgreSQL и ClickHouse). Аналитический склад ума...Аналитика цифровых каналов продаж. Аналитика CRM-инициатив. Подготовка, запуск, анализ A/B-тестов. Развитие отчетности по цифровым каналам продаж. </t>
   </si>
   <si>
     <t>Полная занятость</t>
   </si>
   <si>
-    <t>Проектная работа</t>
-  </si>
-  <si>
     <t>Частичная занятость</t>
   </si>
   <si>
+    <t>От 3 до 6 лет</t>
+  </si>
+  <si>
     <t>От 1 года до 3 лет</t>
   </si>
   <si>
-    <t>От 3 до 6 лет</t>
-  </si>
-  <si>
-    <t>Нет опыта</t>
-  </si>
-  <si>
     <t>Удаленная работа</t>
   </si>
   <si>
     <t>Полный день</t>
+  </si>
+  <si>
+    <t>Гибкий график</t>
   </si>
 </sst>
 </file>
@@ -652,28 +667,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>120000</v>
+        <v>150000</v>
       </c>
       <c r="D2">
-        <v>700000</v>
+        <v>450000</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H2" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -684,28 +699,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>134558</v>
+        <v>140000</v>
       </c>
       <c r="D3">
-        <v>403676</v>
+        <v>440000</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -716,28 +731,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>150000</v>
+        <v>89771</v>
       </c>
       <c r="D4">
-        <v>270000</v>
+        <v>448855</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="I4" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -751,25 +766,25 @@
         <v>150000</v>
       </c>
       <c r="D5">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -783,25 +798,25 @@
         <v>150000</v>
       </c>
       <c r="D6">
-        <v>250000</v>
+        <v>350000</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G6" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H6" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -809,31 +824,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>150000</v>
       </c>
       <c r="D7">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -841,31 +856,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>150000</v>
       </c>
       <c r="D8">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G8" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -873,31 +888,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>150000</v>
       </c>
       <c r="D9">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G9" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I9" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -905,31 +920,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>150000</v>
+        <v>140000</v>
       </c>
       <c r="D10">
-        <v>250000</v>
+        <v>280000</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G10" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -937,31 +952,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>150000</v>
       </c>
       <c r="D11">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -969,7 +984,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>150000</v>
@@ -981,19 +996,19 @@
         <v>26</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1001,31 +1016,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C13">
         <v>150000</v>
       </c>
       <c r="D13">
-        <v>250000</v>
+        <v>240000</v>
       </c>
       <c r="E13" t="s">
         <v>26</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I13" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1033,31 +1048,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C14">
-        <v>140000</v>
+        <v>120000</v>
       </c>
       <c r="D14">
         <v>250000</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="G14" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1065,31 +1080,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C15">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="D15">
-        <v>240000</v>
+        <v>210000</v>
       </c>
       <c r="E15" t="s">
         <v>26</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I15" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="J15" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1100,28 +1115,28 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>120000</v>
+        <v>90000</v>
       </c>
       <c r="D16">
-        <v>250000</v>
+        <v>270000</v>
       </c>
       <c r="E16" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J16" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1129,31 +1144,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C17">
-        <v>150000</v>
+        <v>107725</v>
       </c>
       <c r="D17">
-        <v>200000</v>
+        <v>251359</v>
       </c>
       <c r="E17" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="G17" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="H17" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I17" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J17" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1161,31 +1176,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C18">
-        <v>80000</v>
+        <v>100000</v>
       </c>
       <c r="D18">
-        <v>270000</v>
+        <v>250000</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G18" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H18" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="J18" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1193,7 +1208,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="C19">
         <v>150000</v>
@@ -1205,19 +1220,19 @@
         <v>26</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="H19" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I19" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J19" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1228,28 +1243,28 @@
         <v>24</v>
       </c>
       <c r="C20">
-        <v>130000</v>
+        <v>150000</v>
       </c>
       <c r="D20">
-        <v>220000</v>
+        <v>200000</v>
       </c>
       <c r="E20" t="s">
         <v>26</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="G20" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="H20" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J20" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1260,28 +1275,28 @@
         <v>25</v>
       </c>
       <c r="C21">
-        <v>150000</v>
+        <v>100000</v>
       </c>
       <c r="D21">
-        <v>200000</v>
+        <v>250000</v>
       </c>
       <c r="E21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="G21" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H21" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="J21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/data/report.xlsx
+++ b/data/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="69">
   <si>
     <t>name</t>
   </si>
@@ -43,196 +43,163 @@
     <t>schedule</t>
   </si>
   <si>
+    <t>Разработчик SQL</t>
+  </si>
+  <si>
     <t>Java developer/разработчик Middle+ , Senior</t>
   </si>
   <si>
+    <t>Java разработчик</t>
+  </si>
+  <si>
     <t>Программист SQL</t>
   </si>
   <si>
+    <t>Developer Java</t>
+  </si>
+  <si>
     <t>Senior Data Engineer - SQL, Python, AWS</t>
   </si>
   <si>
+    <t>Java Dev (fintech)</t>
+  </si>
+  <si>
+    <t>Java-разработчик (middle)</t>
+  </si>
+  <si>
+    <t>Java-разработчик</t>
+  </si>
+  <si>
     <t>Java/Kotlin Developer (Spring) Middle+/Senior</t>
   </si>
   <si>
-    <t>Backend Developer (Java) Middle+ / Разработчик</t>
-  </si>
-  <si>
-    <t>Java Developer</t>
-  </si>
-  <si>
-    <t>Java-разработчик (Middle,Senior)</t>
-  </si>
-  <si>
-    <t>Java Разработчик Middle (fullstack)</t>
-  </si>
-  <si>
-    <t>Java-разработчик (Middle/Senior)</t>
-  </si>
-  <si>
-    <t>Middle Java developer</t>
-  </si>
-  <si>
-    <t>Java-разработчик</t>
-  </si>
-  <si>
-    <t>Java Разработчик</t>
-  </si>
-  <si>
-    <t>Java developer</t>
-  </si>
-  <si>
-    <t>Разработчик Java</t>
-  </si>
-  <si>
-    <t>Middle Java Developer / middle JAVA программист, удаленно</t>
-  </si>
-  <si>
-    <t>Инженер-программист (Java, С++, C#)</t>
-  </si>
-  <si>
-    <t>Аналитик (SQL) Middle | Senior</t>
+    <t>Java/Kotlin-разработчик</t>
   </si>
   <si>
     <t>Москва</t>
   </si>
   <si>
+    <t>Самара</t>
+  </si>
+  <si>
+    <t>Санкт-Петербург</t>
+  </si>
+  <si>
+    <t>Омск</t>
+  </si>
+  <si>
+    <t>Новосибирск</t>
+  </si>
+  <si>
+    <t>Йошкар-Ола</t>
+  </si>
+  <si>
+    <t>Казань</t>
+  </si>
+  <si>
+    <t>Калуга</t>
+  </si>
+  <si>
+    <t>Тюмень</t>
+  </si>
+  <si>
+    <t>Нижний Новгород</t>
+  </si>
+  <si>
     <t>Великобритания</t>
   </si>
   <si>
-    <t>Томск</t>
-  </si>
-  <si>
-    <t>Новосибирск</t>
-  </si>
-  <si>
-    <t>Санкт-Петербург</t>
-  </si>
-  <si>
-    <t>Самара</t>
-  </si>
-  <si>
-    <t>Тверь</t>
+    <t>https://hh.ru/vacancy/100516352</t>
   </si>
   <si>
     <t>https://hh.ru/vacancy/98922067</t>
   </si>
   <si>
+    <t>https://hh.ru/vacancy/101868272</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101867857</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101868262</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101868267</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101868266</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101868271</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101868270</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101868269</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101868268</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101868263</t>
+  </si>
+  <si>
     <t>https://hh.ru/vacancy/98955901</t>
   </si>
   <si>
+    <t>https://hh.ru/vacancy/101159789</t>
+  </si>
+  <si>
     <t>https://hh.ru/vacancy/101419407</t>
   </si>
   <si>
+    <t>https://hh.ru/vacancy/99579369</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/101578858</t>
+  </si>
+  <si>
+    <t>https://hh.ru/vacancy/99243706</t>
+  </si>
+  <si>
     <t>https://hh.ru/vacancy/100101267</t>
   </si>
   <si>
-    <t>https://hh.ru/vacancy/101551141</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/99006854</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/98039856</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/100487006</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/99002163</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/97675912</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/85016925</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101755722</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/97140822</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/100352910</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/91730561</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/100781869</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101360223</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/99587173</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/90914046</t>
-  </si>
-  <si>
-    <t>https://hh.ru/vacancy/101362190</t>
+    <t>https://hh.ru/vacancy/99716978</t>
+  </si>
+  <si>
+    <t>Имеете опыт в оптимизации запросов для нагруженных систем. Понимаете механизмы работы MS SQL Server и компонента Service Broker.Команда инвестиционного бизнеса крупнейшего частного банка страны обеспечивает взаимодействие инвесторов с Биржей, помогает им покупать и продавать финансовые инструменты на...</t>
   </si>
   <si>
     <t xml:space="preserve">Опыт работы от 5 лет. Знание Java 11. Опыт работы с микросервисной архитектурой. Опыт работы с JPA (PostgreSQL). </t>
   </si>
   <si>
+    <t>Опыт разработки на Java от 3-х лет. Опыт разработки на Spring Framework, Spring Boot. Знание SQL и реляционных СУБД. Разработка сервисов на Java, оптимизации и рефакторинг существующих сервисов. Участие в архитектурном развитии проекта. Коммуникация с бизнес-заказчиком, технологами, продуктовыми...</t>
+  </si>
+  <si>
     <t>Опыт разработки SQL-запросов для СУБД MS SQL Server. Написание хранимых процедур, триггеров, функций. Умение пользоваться анализатором запросов. Проектирование таблиц, БД. Написание оптимальных запросов в высоконагруженных СУБД для MS SQL на языке T-SQL. Работа с высоконагруженными базами.</t>
   </si>
   <si>
+    <t xml:space="preserve">Опыт разработки автоматизированных систем и решения задач по оптимизации производительности. Знания Java, Spring Boot, Maven, Hibernate. Опыт работы с реляционными...Разработка и оптимизация бизнес логики контейнеризированного приложения на Java. Реализация интеграций со смежными автоматизированный системами (Kafka и REST API). </t>
+  </si>
+  <si>
     <t xml:space="preserve">2+ years of working experience in data engineering. Python, SQL, AWS (RDS, RedShift, Lambda, Glue etc.). Preferred experience with...Data Integration: Ability to extract, transform, and load data from various sources into a centralised data storage system. </t>
   </si>
   <si>
+    <t>Умение проводить исследования и сравнительный анализ. Обладание навыками прототипирования. Опыт построения распределённых систем. Опыт работы с технологиями виртуализации и контейнеризации. Применение шаблонов архитектурного и программного проектирования. Разработка на Java. Разработка приложений на базе Spring Framework/Boot. Разработка web-сервисов (REST...</t>
+  </si>
+  <si>
+    <t>Опыт коммерческой разработки на Java от 2 лет. Знание Spring. Опыт работы с PostgreSQL. Опыт работы с Kafka, RabbitMQ (или...Разрабатывать серверную часть веб-приложений на JAVA. Принимать участие в проектировании (выборе технологических подходов и технических решений) серверной части веб...</t>
+  </si>
+  <si>
+    <t>Опыт работы с Java не менее 3 лет. Глубокое понимание современных концепций и принципов разработки на платформе Java. Возможность участвовать в регулярных архитектурно-аналитических митингах, где можно познакомиться с новыми инструментами и подходами в области архитектуры.</t>
+  </si>
+  <si>
     <t>Опыт коммерческой разработки back-end на Java/Kotlin от 3 лет. Опыт работы с Spring Framework. Опыт работы с реляционными...Разработка новых продуктов. Разработка серверной части проекта. Поддержка и развитие существующих решений - бэкенд, базы данных, очереди задач. Интеграция с внешними...</t>
   </si>
   <si>
-    <t>Опыт работы с Java от 2-х лет. Уверенные знания основных современных концепций и принципов разработки на платформе Java. Возможность "путешествовать" по проектам разных направлений (промка, фин, телеком, агро , медицина, ретейл) в рамках 1 работодателя. Свой собственный институт знаний...</t>
-  </si>
-  <si>
-    <t>Опыт работы от 3 лет в коммерческих проектах. Знание Java. Знание Spring (Spring Boot, Spring JPA, Spring Cloud). Участвовать во внутренних и внешних проектах. Разрабатывать новые и поддерживать существующие системы на Java.</t>
-  </si>
-  <si>
-    <t>Отличные знания Java Core и опыт работы со стеком Spring, в том числе SpringBoot. Использовали Git; Gradle/Maven. Олицетворение человеческого отношения друг к другу, культура в компании, при которой сотрудников слушают и слышат.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Опыт работы с Unix консолью. Опыт работы с Java Core на продвинутом уровне. Знание и опыт применения FreeMarker для шаблонизации. Разработка новых функциональностей и модулей в соответствии с требованиями заказчика. Доработка существующего функционала для улучшения производительности и пользовательского опыта. </t>
-  </si>
-  <si>
-    <t>3+ года опыта коммерческой разработки на Java. Понимание как работают Spring и Spring Boot, опыт их использования и отладки...Работу над реальными бизнес-задачами клиентов, быстрый фидбэк. Коммуницировать с заказчиком, по необходимости прояснять задачи и предлагать решения.</t>
-  </si>
-  <si>
-    <t>Java 17, Kotlin (опционально). Spring (boot, data, web, ws), Hibernate. Понимание микросервисной архитектуры. Хорошее понимание смежных технологий: SQL (Oracle, Postgres...Разрабатывать приложения на java + spring. Участвовать в проработке концепции продукта вместе с владельцем продукта и командой. Осуществлять выбор способов...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высшее образование. Опыт работы на должности java-разработчика от 3-х лет. Знание Java Core (jdk 8 +). Знание maven. Разработка no-code/low-code решений с использованием BPMN движка (Camunda). Разработка специализированных функций реализации задач (task) BPMN-процессов. </t>
-  </si>
-  <si>
-    <t>Опыт работы и уверенные знания Java (Core, Collection, Stream api). Опыт работы и уверенные знания основных модулей Spring Framework. Разработка нового, поддержка/оптимизация текущего функционала. Разбор и устранение дефектов. Рефакторинг и Code Review. Участие в планировании, оценка трудоемкости, декомпозиция...</t>
-  </si>
-  <si>
-    <t>Имеете опыт реактивного программирования на Java (Reactor, RxJava). Имеете опыт АОП. Разрабатывали что-то с использованием JavaFX. Уверенный пользователь Linux.Проектировать, разрабатывать и тестировать модули НСУ. Применять лучшие кодинг-практики, проводить код-ревью. Взаимодействовать с опытной командой (системный и программный...</t>
-  </si>
-  <si>
-    <t>Умение работать в системах GitLab, BitBucket, TeamCity, Jenkins. Уверенные знания знание ООП и java. Опыт разработки юнит-тестов. Разработка ПО (BackEnd) в соответствии с утвержденными техническими заданиями. Участие в проектировании разрабатываемого ПО. Реализации сложных интеграционных процессов и преобразований...</t>
-  </si>
-  <si>
-    <t>Современный стек технологий.Технологический стек: Интересные, сложные проекты, высокая степень детализации задач на разработку.</t>
-  </si>
-  <si>
-    <t>Уверенное знание и владение языком программирования Java. Опыт работы с облачными платформами и технологиями. Опыт работы с Jira или похожей...Разработка ETL фреймворка на Java. Интеграция фреймворка с cloud платформами.</t>
-  </si>
-  <si>
-    <t>Понимание ООП. Знание стека основных корпоративных технологий Java (JMS, JNDI, JPA, JTA, CDI, JAX-RS, JAX-WS). Знание Spring (Core...Проектирование и реализация крупных корпоративных решений. Создание модульных и интеграционных тестов и сценариев тестирования. Активное участие в планировании и развитии...</t>
-  </si>
-  <si>
-    <t>Знание Java(11+) (Java Core, Java Collections, Java Concurrency). Spring Framework (Spring boot, MVC, Security, Spring Cloud). Дорабатывать и поддерживать существующие функциональности backend. Создавать и развивать существующий код, участвовать в разработке архитектуры приложения, рефакторинг и оптимизация кода...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Высшее профессиональное образование по профилю: "Вычислительные системы", "Информационные технологии". Навыки программирования на С#, Java (профессиональный уровень). Понимание принципов построения вычислительных...Разработка алгоритмов для разрабатываемых программ в соответствии с требованиями технического задания. Разработка схем баз данных для разрабатываемых программ. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Знание SQL на хорошем уровне, умение писать сложные запросы к БД (мы работаем с PostgreSQL и ClickHouse). Аналитический склад ума...Аналитика цифровых каналов продаж. Аналитика CRM-инициатив. Подготовка, запуск, анализ A/B-тестов. Развитие отчетности по цифровым каналам продаж. </t>
+    <t xml:space="preserve">Опыт разработки на Java или Kotlin от 1,5 года. Понимание принципов ООП. Понимание принципов Spring Framework. Опыт проектирования и...Разработка и развитие продуктов. Разработка внутренних инструментов для разработчиков компании (фреймворк). Участие в проектировании решений и выборе подходов/технологий. </t>
   </si>
   <si>
     <t>Полная занятость</t>
@@ -241,6 +208,9 @@
     <t>Частичная занятость</t>
   </si>
   <si>
+    <t>Более 6 лет</t>
+  </si>
+  <si>
     <t>От 3 до 6 лет</t>
   </si>
   <si>
@@ -251,9 +221,6 @@
   </si>
   <si>
     <t>Полный день</t>
-  </si>
-  <si>
-    <t>Гибкий график</t>
   </si>
 </sst>
 </file>
@@ -667,28 +634,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D2">
-        <v>450000</v>
+        <v>500000</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I2" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="J2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -699,28 +666,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>140000</v>
+        <v>150000</v>
       </c>
       <c r="D3">
-        <v>440000</v>
+        <v>450000</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I3" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J3" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -731,28 +698,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>89771</v>
+        <v>200000</v>
       </c>
       <c r="D4">
-        <v>448855</v>
+        <v>400000</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="I4" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -760,31 +727,31 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D5">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I5" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -792,31 +759,31 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D6">
-        <v>350000</v>
+        <v>400000</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -824,31 +791,31 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D7">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H7" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I7" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -856,31 +823,31 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C8">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D8">
-        <v>300000</v>
+        <v>400000</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I8" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J8" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -888,31 +855,31 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D9">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J9" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -920,31 +887,31 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10">
-        <v>140000</v>
+        <v>200000</v>
       </c>
       <c r="D10">
-        <v>280000</v>
+        <v>400000</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J10" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -952,31 +919,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D11">
-        <v>270000</v>
+        <v>400000</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="H11" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I11" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J11" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -984,31 +951,31 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="C12">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D12">
-        <v>250000</v>
+        <v>400000</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H12" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J12" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1016,31 +983,31 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C13">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D13">
-        <v>240000</v>
+        <v>400000</v>
       </c>
       <c r="E13" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G13" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1048,31 +1015,31 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14">
-        <v>120000</v>
+        <v>140000</v>
       </c>
       <c r="D14">
-        <v>250000</v>
+        <v>440000</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="H14" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I14" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -1080,31 +1047,31 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C15">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D15">
-        <v>210000</v>
+        <v>370000</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G15" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I15" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="J15" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1112,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C16">
-        <v>90000</v>
+        <v>89920</v>
       </c>
       <c r="D16">
-        <v>270000</v>
+        <v>449603</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H16" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="I16" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J16" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1144,31 +1111,31 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17">
-        <v>107725</v>
+        <v>180000</v>
       </c>
       <c r="D17">
-        <v>251359</v>
+        <v>350000</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G17" t="s">
+        <v>57</v>
+      </c>
+      <c r="H17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I17" t="s">
+        <v>65</v>
+      </c>
+      <c r="J17" t="s">
         <v>68</v>
-      </c>
-      <c r="H17" t="s">
-        <v>73</v>
-      </c>
-      <c r="I17" t="s">
-        <v>76</v>
-      </c>
-      <c r="J17" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1176,31 +1143,31 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C18">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="D18">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G18" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="H18" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I18" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J18" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -1208,31 +1175,31 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C19">
-        <v>150000</v>
+        <v>200000</v>
       </c>
       <c r="D19">
-        <v>200000</v>
+        <v>300000</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G19" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J19" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1240,31 +1207,31 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C20">
         <v>150000</v>
       </c>
       <c r="D20">
-        <v>200000</v>
+        <v>350000</v>
       </c>
       <c r="E20" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G20" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I20" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="J20" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1272,31 +1239,31 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C21">
-        <v>100000</v>
+        <v>200000</v>
       </c>
       <c r="D21">
-        <v>250000</v>
+        <v>300000</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="H21" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="I21" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="J21" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
